--- a/Calculations/mppt/mpptkurve.xlsx
+++ b/Calculations/mppt/mpptkurve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Documents\GitHub\ee-projekt\Calculations\mppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD969EBE-8D6A-4EBB-8F25-924038089182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FDE3A7-A7BD-4E01-991D-7312B018EB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6915D7BA-9E54-48B7-A255-6F7A5307E4CE}"/>
   </bookViews>
@@ -2303,7 +2303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90F3A9D-DB8F-4F44-BC9C-DD60A333AF75}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="79" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2347,7 +2347,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="F2">
-        <f>E2*D2</f>
+        <f t="shared" ref="F2:F12" si="0">E2*D2</f>
         <v>0.59400000000000008</v>
       </c>
       <c r="G2" s="1">
@@ -2370,7 +2370,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="F3">
-        <f>E3*D3</f>
+        <f t="shared" si="0"/>
         <v>0.23399999999999999</v>
       </c>
       <c r="G3" s="1">
@@ -2385,7 +2385,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="F4">
-        <f>E4*D4</f>
+        <f t="shared" si="0"/>
         <v>0.91799999999999993</v>
       </c>
       <c r="G4" s="1">
@@ -2400,7 +2400,7 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="F5">
-        <f>E5*D5</f>
+        <f t="shared" si="0"/>
         <v>3.5148000000000001</v>
       </c>
       <c r="G5" s="1">
@@ -2415,7 +2415,7 @@
         <v>0.308</v>
       </c>
       <c r="F6">
-        <f>E6*D6</f>
+        <f t="shared" si="0"/>
         <v>4.6508000000000003</v>
       </c>
       <c r="G6" s="1">
@@ -2430,7 +2430,7 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="F7">
-        <f>E7*D7</f>
+        <f t="shared" si="0"/>
         <v>3.0054500000000002</v>
       </c>
       <c r="G7" s="1">
@@ -2445,7 +2445,7 @@
         <v>0.23400000000000001</v>
       </c>
       <c r="F8">
-        <f>E8*D8</f>
+        <f t="shared" si="0"/>
         <v>1.9071000000000002</v>
       </c>
       <c r="G8" s="1">
@@ -2460,7 +2460,7 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="F9">
-        <f>E9*D9</f>
+        <f t="shared" si="0"/>
         <v>1.3024800000000001</v>
       </c>
       <c r="G9" s="1">
@@ -2475,7 +2475,7 @@
         <v>0.17699999999999999</v>
       </c>
       <c r="F10">
-        <f>E10*D10</f>
+        <f t="shared" si="0"/>
         <v>0.95579999999999998</v>
       </c>
       <c r="G10" s="1">
@@ -2490,7 +2490,7 @@
         <v>0.157</v>
       </c>
       <c r="F11">
-        <f>E11*D11</f>
+        <f t="shared" si="0"/>
         <v>0.72062999999999999</v>
       </c>
       <c r="G11" s="1">
@@ -2505,7 +2505,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F12">
-        <f>E12*D12</f>
+        <f t="shared" si="0"/>
         <v>0.54320000000000002</v>
       </c>
       <c r="G12" s="1">

--- a/Calculations/mppt/mpptkurve.xlsx
+++ b/Calculations/mppt/mpptkurve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Documents\GitHub\ee-projekt\Calculations\mppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FDE3A7-A7BD-4E01-991D-7312B018EB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F654DDE3-94F8-4DAB-8C6D-1AF293AAC00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6915D7BA-9E54-48B7-A255-6F7A5307E4CE}"/>
   </bookViews>
@@ -2303,7 +2303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90F3A9D-DB8F-4F44-BC9C-DD60A333AF75}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="79" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/Calculations/mppt/mpptkurve.xlsx
+++ b/Calculations/mppt/mpptkurve.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Documents\GitHub\ee-projekt\Calculations\mppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F654DDE3-94F8-4DAB-8C6D-1AF293AAC00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB60E1B4-A1B7-404A-A866-3E8ED01B0F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6915D7BA-9E54-48B7-A255-6F7A5307E4CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6915D7BA-9E54-48B7-A255-6F7A5307E4CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Strøm (A)</t>
   </si>
@@ -51,6 +52,117 @@
   </si>
   <si>
     <t>Udgang V (RMS)</t>
+  </si>
+  <si>
+    <t>Strøm- og spændingsmålinger</t>
+  </si>
+  <si>
+    <t>Duty Cycle</t>
+  </si>
+  <si>
+    <t>Strøm</t>
+  </si>
+  <si>
+    <t>Spænding</t>
+  </si>
+  <si>
+    <t>300mV</t>
+  </si>
+  <si>
+    <t>4,63V</t>
+  </si>
+  <si>
+    <t>4,64V</t>
+  </si>
+  <si>
+    <t>240mV</t>
+  </si>
+  <si>
+    <t>Udgang 1. buck</t>
+  </si>
+  <si>
+    <t>9V</t>
+  </si>
+  <si>
+    <t>udgang Load</t>
+  </si>
+  <si>
+    <t>4,97V</t>
+  </si>
+  <si>
+    <t>4,65V</t>
+  </si>
+  <si>
+    <t>200mV</t>
+  </si>
+  <si>
+    <t>10,9V</t>
+  </si>
+  <si>
+    <t>6,85V</t>
+  </si>
+  <si>
+    <t>12,7V</t>
+  </si>
+  <si>
+    <t>8,7V</t>
+  </si>
+  <si>
+    <t>Med printf</t>
+  </si>
+  <si>
+    <t>Uden printf</t>
+  </si>
+  <si>
+    <t>150mV</t>
+  </si>
+  <si>
+    <t>4,68V</t>
+  </si>
+  <si>
+    <t>uden printf</t>
+  </si>
+  <si>
+    <t>13V</t>
+  </si>
+  <si>
+    <t>120mV</t>
+  </si>
+  <si>
+    <t>4,69V</t>
+  </si>
+  <si>
+    <t>130mV</t>
+  </si>
+  <si>
+    <t>11,2V</t>
+  </si>
+  <si>
+    <t>110mV</t>
+  </si>
+  <si>
+    <t>90mV</t>
+  </si>
+  <si>
+    <t>9,45V</t>
+  </si>
+  <si>
+    <t>100mV</t>
+  </si>
+  <si>
+    <t>4,66V</t>
+  </si>
+  <si>
+    <t>7,77V</t>
+  </si>
+  <si>
+    <t>105mV</t>
+  </si>
+  <si>
+    <t>4,67V</t>
+  </si>
+  <si>
+    <t>5V</t>
   </si>
 </sst>
 </file>
@@ -2303,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90F3A9D-DB8F-4F44-BC9C-DD60A333AF75}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+    <sheetView zoomScale="79" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2516,4 +2628,215 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F4D286-8221-4261-A72A-35A516577475}">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Calculations/mppt/mpptkurve.xlsx
+++ b/Calculations/mppt/mpptkurve.xlsx
@@ -327,12 +327,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="44986752"/>
-        <c:axId val="139122944"/>
+        <c:axId val="134729728"/>
+        <c:axId val="134731648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44986752"/>
+        <c:axId val="134729728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,7 +347,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Spænding</a:t>
+                  <a:t>Spænding - V</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -358,12 +357,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139122944"/>
+        <c:crossAx val="134731648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139122944"/>
+        <c:axId val="134731648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -380,7 +379,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Effekt</a:t>
+                  <a:t>Effekt - W</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -390,7 +389,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44986752"/>
+        <c:crossAx val="134729728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -403,7 +402,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -524,40 +523,69 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="144042624"/>
-        <c:axId val="144041088"/>
+        <c:axId val="134502656"/>
+        <c:axId val="134508928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144042624"/>
+        <c:axId val="134502656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Spænding - V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144041088"/>
+        <c:crossAx val="134508928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144041088"/>
+        <c:axId val="134508928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Strøm - A</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144042624"/>
+        <c:crossAx val="134502656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -570,7 +598,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -581,6 +609,21 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Effekt/DutyCycle</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
     </c:title>
     <c:plotArea>
@@ -691,31 +734,80 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="144754176"/>
-        <c:axId val="144047488"/>
+        <c:dLbls/>
+        <c:axId val="134537600"/>
+        <c:axId val="134539136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144754176"/>
+        <c:axId val="134537600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>DutyCycle -</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> V</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144047488"/>
+        <c:crossAx val="134539136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144047488"/>
+        <c:axId val="134539136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Effekt</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Solpanel (W)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144754176"/>
+        <c:crossAx val="134537600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -728,7 +820,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -738,16 +830,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>494336</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>60284</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12057</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>144684</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>108512</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>24114</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -768,16 +860,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>494337</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12059</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>144685</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>60286</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>24114</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -798,16 +890,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>494335</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>156740</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12057</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>144683</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12057</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12056</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1118,7 +1210,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1128,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
